--- a/VerveStacks_CHE/source_data/VerveStacks_CHE.xlsx
+++ b/VerveStacks_CHE/source_data/VerveStacks_CHE.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961E8A81-58C9-4433-9AC9-781095FF41AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8F251C-35B5-49E9-9865-C91394E1C500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="historical_data" sheetId="4" r:id="rId1"/>
-    <sheet name="iamc_data" sheetId="84" r:id="rId2"/>
-    <sheet name="iamc_charts" sheetId="83" r:id="rId3"/>
-    <sheet name="weo_pg" sheetId="82" r:id="rId4"/>
-    <sheet name="re_targets" sheetId="81" r:id="rId5"/>
-    <sheet name="ccs_retrofits" sheetId="80" r:id="rId6"/>
-    <sheet name="Calibration" sheetId="79" r:id="rId7"/>
-    <sheet name="existing_stock" sheetId="78" r:id="rId8"/>
+    <sheet name="iamc_data" sheetId="91" r:id="rId2"/>
+    <sheet name="iamc_charts" sheetId="90" r:id="rId3"/>
+    <sheet name="weo_pg" sheetId="89" r:id="rId4"/>
+    <sheet name="re_targets" sheetId="88" r:id="rId5"/>
+    <sheet name="ccs_retrofits" sheetId="87" r:id="rId6"/>
+    <sheet name="Calibration" sheetId="86" r:id="rId7"/>
+    <sheet name="existing_stock" sheetId="85" r:id="rId8"/>
     <sheet name="base_year_data" sheetId="37" r:id="rId9"/>
     <sheet name="ember_utilization" sheetId="15" r:id="rId10"/>
     <sheet name="irena_utilization" sheetId="14" r:id="rId11"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2601" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2542" uniqueCount="352">
   <si>
     <t>Time Slices</t>
   </si>
@@ -1097,265 +1097,10 @@
     <t>ep_solar_pv_</t>
   </si>
   <si>
-    <t>ep_gas_combined_cycle_G100000410168</t>
-  </si>
-  <si>
-    <t>Monthey power station_1</t>
-  </si>
-  <si>
-    <t>Valais</t>
-  </si>
-  <si>
-    <t>Monthey</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100000603528</t>
-  </si>
-  <si>
-    <t>Handeck II E hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100000603530</t>
-  </si>
-  <si>
-    <t>Hopflauenen Trift hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100000603552</t>
-  </si>
-  <si>
-    <t>Safien hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Safiental</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100000603556</t>
-  </si>
-  <si>
-    <t>Soazza hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100001027468</t>
-  </si>
-  <si>
-    <t>Lucendro hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100001027470</t>
-  </si>
-  <si>
-    <t>Campocologno I hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Bernina</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100001027472</t>
-  </si>
-  <si>
-    <t>Croix hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Hérens</t>
-  </si>
-  <si>
-    <t>Ayent</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100001027478</t>
-  </si>
-  <si>
-    <t>Ilanz 2 hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Surselva</t>
-  </si>
-  <si>
-    <t>Ilanz/Glion</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100001027479</t>
-  </si>
-  <si>
-    <t>Innertkirchen 2 hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100001027483</t>
-  </si>
-  <si>
-    <t>Siebnen hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100001027484</t>
-  </si>
-  <si>
-    <t>Tinizong hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Albula</t>
-  </si>
-  <si>
-    <t>Surses</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100001027485</t>
-  </si>
-  <si>
-    <t>Unteraa Lungerersee hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Obwalden</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100001027486</t>
-  </si>
-  <si>
-    <t>Vissoie hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Sierre</t>
-  </si>
-  <si>
-    <t>Anniviers</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_G100001052031</t>
-  </si>
-  <si>
-    <t>Navizence hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>ep_hydro_ps_G100000604635</t>
-  </si>
-  <si>
-    <t>Mottec hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>ep_hydro_ps_G100001027477</t>
-  </si>
-  <si>
-    <t>Handeck III hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>ep_hydro_ps_G100001027480</t>
-  </si>
-  <si>
-    <t>Peccia hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>ep_hydro_ps_G100001027482</t>
-  </si>
-  <si>
-    <t>Rempen hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>ep_hydro_ps_G100001027487</t>
-  </si>
-  <si>
-    <t>Zermeiggern hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Visp</t>
-  </si>
-  <si>
-    <t>ep_hydro_ror_G100000603534</t>
-  </si>
-  <si>
-    <t>Lavey hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Lavey-Morcles</t>
-  </si>
-  <si>
-    <t>ep_hydro_ror_G100000603537</t>
-  </si>
-  <si>
-    <t>Löbbia Albigna hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>ep_hydro_ror_G100000603538</t>
-  </si>
-  <si>
-    <t>Löntsch hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>ep_hydro_ror_G100001027469</t>
-  </si>
-  <si>
-    <t>Ardon hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Conthey</t>
-  </si>
-  <si>
-    <t>ep_hydro_ror_G100001027471</t>
-  </si>
-  <si>
-    <t>Chancy-Pougny hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Geneve</t>
-  </si>
-  <si>
-    <t>ep_hydro_ror_G100001027474</t>
-  </si>
-  <si>
-    <t>Fieschertal hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Goms</t>
-  </si>
-  <si>
-    <t>ep_hydro_ror_G100001027475</t>
-  </si>
-  <si>
-    <t>Filisur hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Bergün Filisur</t>
-  </si>
-  <si>
-    <t>ep_hydro_ror_G100001027476</t>
-  </si>
-  <si>
-    <t>Gondo hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Brig</t>
-  </si>
-  <si>
-    <t>ep_hydro_ror_G100001027481</t>
-  </si>
-  <si>
-    <t>Piottino hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>ep_hydro_ror_G100001052028</t>
-  </si>
-  <si>
-    <t>Ackersand II hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Canton of Valais</t>
-  </si>
-  <si>
-    <t>ep_hydro_ror_G100001052060</t>
-  </si>
-  <si>
-    <t>Wassen hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Canton of Uri</t>
-  </si>
-  <si>
-    <t>ep_hydro_ror_G100001052063</t>
-  </si>
-  <si>
-    <t>Wildegg-Brugg hydroelectric plant_</t>
-  </si>
-  <si>
-    <t>Canton of Aargau</t>
+    <t>ep_hydro_dam</t>
+  </si>
+  <si>
+    <t>ep_hydro_ps</t>
   </si>
   <si>
     <t>capacity_gw_gem</t>
@@ -1377,9 +1122,6 @@
   </si>
   <si>
     <t>fuel_consumed_unsd_twh</t>
-  </si>
-  <si>
-    <t>ep_gas_combined_cycle_G100000410168_ccs-rf</t>
   </si>
 </sst>
 </file>
@@ -1505,7 +1247,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{417FE7FA-40C3-EEBE-970B-ABDBC30A7503}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2268112-0630-937D-0F96-86B122B8704A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7796,7 +7538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E681D41D-C63A-43A1-9855-4AB634F257DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1768EA42-F6AD-4F3A-A421-BAC9D432540E}">
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -10159,7 +9901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A49941-D0D2-4F19-9821-3DC545CC2E60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1BBA2B-5AD1-461D-9D36-9CD6BB5C63B8}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10172,7 +9914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC015919-FFF8-406B-A244-DF83304273DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34A2D21-7FA0-4975-8E23-E023EFE38A79}">
   <dimension ref="A1:H209"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15307,7 +15049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA027C1F-860E-4BDE-B8A8-F00919169371}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C82A7E-B53F-47D3-8109-2F0A199748E7}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16055,8 +15797,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB81AC0-56EC-4F36-BE18-F72C67E11A8D}">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB4EE3C-B290-42EF-BA59-DF8C42BB0017}">
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16096,7 +15838,7 @@
         <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>437</v>
+        <v>338</v>
       </c>
       <c r="C2">
         <v>1365</v>
@@ -16108,16 +15850,16 @@
         <v>3.75</v>
       </c>
       <c r="F2">
-        <v>0.46865000000000007</v>
+        <v>0.52272499999999988</v>
       </c>
       <c r="G2">
         <v>0.84455000000000002</v>
       </c>
       <c r="H2">
-        <v>0.53560000000000008</v>
+        <v>0.59739999999999993</v>
       </c>
       <c r="I2" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
@@ -16125,7 +15867,7 @@
         <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>338</v>
+        <v>212</v>
       </c>
       <c r="C3">
         <v>1365</v>
@@ -16137,16 +15879,16 @@
         <v>3.75</v>
       </c>
       <c r="F3">
-        <v>0.52272499999999988</v>
+        <v>0.46865000000000007</v>
       </c>
       <c r="G3">
         <v>0.84455000000000002</v>
       </c>
       <c r="H3">
-        <v>0.59739999999999993</v>
+        <v>0.53560000000000008</v>
       </c>
       <c r="I3" t="s">
-        <v>329</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
@@ -16154,7 +15896,7 @@
         <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C4">
         <v>1365</v>
@@ -16166,44 +15908,15 @@
         <v>3.75</v>
       </c>
       <c r="F4">
-        <v>0.36951250000000002</v>
+        <v>0.27938750000000001</v>
       </c>
       <c r="G4">
         <v>0.84455000000000002</v>
       </c>
       <c r="H4">
-        <v>0.42230000000000001</v>
+        <v>0.31930000000000003</v>
       </c>
       <c r="I4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C5">
-        <v>1365</v>
-      </c>
-      <c r="D5">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="E5">
-        <v>3.75</v>
-      </c>
-      <c r="F5">
-        <v>0.27938750000000001</v>
-      </c>
-      <c r="G5">
-        <v>0.84455000000000002</v>
-      </c>
-      <c r="H5">
-        <v>0.31930000000000003</v>
-      </c>
-      <c r="I5" t="s">
         <v>79</v>
       </c>
     </row>
@@ -16213,7 +15926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90BCB8CD-87B2-4BA3-A672-B9AD2F155DD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29FD32CE-027D-4D36-B996-C4F573ADFC35}">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16228,13 +15941,13 @@
         <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>430</v>
+        <v>345</v>
       </c>
       <c r="D1" t="s">
-        <v>431</v>
+        <v>346</v>
       </c>
       <c r="E1" t="s">
-        <v>432</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -16493,16 +16206,16 @@
         <v>337</v>
       </c>
       <c r="E19" t="s">
-        <v>433</v>
+        <v>348</v>
       </c>
       <c r="F19" t="s">
-        <v>434</v>
+        <v>349</v>
       </c>
       <c r="G19" t="s">
-        <v>435</v>
+        <v>350</v>
       </c>
       <c r="H19" t="s">
-        <v>436</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
@@ -16655,8 +16368,8 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A225C09-060B-4DDA-AEA9-1162D9C83B8E}">
-  <dimension ref="A1:V105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A09704-9D1F-404C-8B77-C3C166F0E03C}">
+  <dimension ref="A1:V102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16850,10 +16563,10 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>329</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>330</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
         <v>77</v>
@@ -16862,13 +16575,13 @@
         <v>52</v>
       </c>
       <c r="E4">
-        <v>2022</v>
+        <v>2009</v>
       </c>
       <c r="I4" t="s">
         <v>78</v>
       </c>
       <c r="J4">
-        <v>0.13120000000000001</v>
+        <v>5.5E-2</v>
       </c>
       <c r="K4">
         <v>1265</v>
@@ -16880,7 +16593,7 @@
         <v>3.4650000000000003</v>
       </c>
       <c r="N4">
-        <v>0.59739999999999993</v>
+        <v>0.53560000000000008</v>
       </c>
       <c r="O4">
         <v>50</v>
@@ -16909,10 +16622,10 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="B5" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C5" t="s">
         <v>77</v>
@@ -16921,19 +16634,13 @@
         <v>52</v>
       </c>
       <c r="E5">
-        <v>2009</v>
-      </c>
-      <c r="G5" t="s">
-        <v>345</v>
-      </c>
-      <c r="H5" t="s">
-        <v>346</v>
+        <v>2022</v>
       </c>
       <c r="I5" t="s">
         <v>78</v>
       </c>
       <c r="J5">
-        <v>5.5E-2</v>
+        <v>0.13120000000000001</v>
       </c>
       <c r="K5">
         <v>1265</v>
@@ -16945,7 +16652,7 @@
         <v>3.4650000000000003</v>
       </c>
       <c r="N5">
-        <v>0.53560000000000008</v>
+        <v>0.59739999999999993</v>
       </c>
       <c r="O5">
         <v>50</v>
@@ -17033,10 +16740,10 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B7" t="s">
-        <v>340</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
         <v>81</v>
@@ -17045,22 +16752,22 @@
         <v>52</v>
       </c>
       <c r="E7">
-        <v>2022</v>
+        <v>1907</v>
       </c>
       <c r="I7" t="s">
         <v>78</v>
       </c>
       <c r="J7">
-        <v>3.1750000000000007</v>
+        <v>0.05</v>
       </c>
       <c r="K7">
-        <v>2750</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="L7">
-        <v>55</v>
+        <v>71.5</v>
       </c>
       <c r="M7">
-        <v>2.1</v>
+        <v>2.52</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -17068,10 +16775,10 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>343</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
         <v>81</v>
@@ -17080,16 +16787,13 @@
         <v>52</v>
       </c>
       <c r="E8">
-        <v>1923</v>
-      </c>
-      <c r="G8" t="s">
-        <v>84</v>
+        <v>1921</v>
       </c>
       <c r="I8" t="s">
         <v>78</v>
       </c>
       <c r="J8">
-        <v>0.12</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="K8">
         <v>3162.5000000000005</v>
@@ -17106,10 +16810,10 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>343</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
         <v>81</v>
@@ -17118,16 +16822,13 @@
         <v>52</v>
       </c>
       <c r="E9">
-        <v>1962</v>
-      </c>
-      <c r="G9" t="s">
-        <v>87</v>
+        <v>1926</v>
       </c>
       <c r="I9" t="s">
         <v>78</v>
       </c>
       <c r="J9">
-        <v>0.22</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="K9">
         <v>3162.5000000000005</v>
@@ -17144,10 +16845,10 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>343</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
         <v>81</v>
@@ -17156,16 +16857,13 @@
         <v>52</v>
       </c>
       <c r="E10">
-        <v>1966</v>
-      </c>
-      <c r="G10" t="s">
-        <v>90</v>
+        <v>1947</v>
       </c>
       <c r="I10" t="s">
         <v>78</v>
       </c>
       <c r="J10">
-        <v>0.14000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="K10">
         <v>3162.5000000000005</v>
@@ -17182,10 +16880,10 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>343</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
         <v>81</v>
@@ -17194,25 +16892,22 @@
         <v>52</v>
       </c>
       <c r="E11">
-        <v>1959</v>
-      </c>
-      <c r="G11" t="s">
-        <v>90</v>
+        <v>1954</v>
       </c>
       <c r="I11" t="s">
         <v>78</v>
       </c>
       <c r="J11">
-        <v>0.32400000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K11">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="L11">
-        <v>55.000000000000014</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="M11">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -17220,10 +16915,10 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>343</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
         <v>81</v>
@@ -17232,25 +16927,22 @@
         <v>52</v>
       </c>
       <c r="E12">
-        <v>1999</v>
-      </c>
-      <c r="G12" t="s">
-        <v>95</v>
+        <v>1957</v>
       </c>
       <c r="I12" t="s">
         <v>78</v>
       </c>
       <c r="J12">
-        <v>1.26</v>
+        <v>0.152</v>
       </c>
       <c r="K12">
-        <v>2750</v>
+        <v>3162.5000000000009</v>
       </c>
       <c r="L12">
-        <v>55.000000000000014</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="M12">
-        <v>2.1</v>
+        <v>2.3100000000000009</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -17258,10 +16950,10 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>343</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
         <v>81</v>
@@ -17270,25 +16962,22 @@
         <v>52</v>
       </c>
       <c r="E13">
-        <v>1955</v>
-      </c>
-      <c r="G13" t="s">
-        <v>98</v>
+        <v>1958</v>
       </c>
       <c r="I13" t="s">
         <v>78</v>
       </c>
       <c r="J13">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="K13">
-        <v>3162.5000000000005</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="L13">
-        <v>60.500000000000021</v>
+        <v>71.5</v>
       </c>
       <c r="M13">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -17296,10 +16985,10 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>343</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
         <v>81</v>
@@ -17308,25 +16997,22 @@
         <v>52</v>
       </c>
       <c r="E14">
-        <v>1969</v>
-      </c>
-      <c r="G14" t="s">
-        <v>95</v>
+        <v>1967</v>
       </c>
       <c r="I14" t="s">
         <v>78</v>
       </c>
       <c r="J14">
-        <v>0.34</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="K14">
-        <v>2750</v>
+        <v>3162.5000000000009</v>
       </c>
       <c r="L14">
-        <v>55.000000000000014</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="M14">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -17334,10 +17020,10 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>343</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
         <v>81</v>
@@ -17346,25 +17032,22 @@
         <v>52</v>
       </c>
       <c r="E15">
-        <v>1959</v>
-      </c>
-      <c r="G15" t="s">
-        <v>87</v>
+        <v>1992</v>
       </c>
       <c r="I15" t="s">
         <v>78</v>
       </c>
       <c r="J15">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="K15">
-        <v>3162.5000000000005</v>
+        <v>3712.5000000000005</v>
       </c>
       <c r="L15">
-        <v>60.500000000000021</v>
+        <v>71.5</v>
       </c>
       <c r="M15">
-        <v>2.3100000000000005</v>
+        <v>2.52</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -17372,10 +17055,10 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>343</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
         <v>81</v>
@@ -17384,22 +17067,19 @@
         <v>52</v>
       </c>
       <c r="E16">
-        <v>1955</v>
-      </c>
-      <c r="G16" t="s">
-        <v>90</v>
+        <v>2012</v>
       </c>
       <c r="I16" t="s">
         <v>78</v>
       </c>
       <c r="J16">
-        <v>0.114</v>
+        <v>0.09</v>
       </c>
       <c r="K16">
         <v>3162.5000000000005</v>
       </c>
       <c r="L16">
-        <v>60.500000000000014</v>
+        <v>60.500000000000007</v>
       </c>
       <c r="M16">
         <v>2.3100000000000005</v>
@@ -17410,10 +17090,10 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>343</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
         <v>81</v>
@@ -17422,25 +17102,22 @@
         <v>52</v>
       </c>
       <c r="E17">
-        <v>1957</v>
-      </c>
-      <c r="G17" t="s">
-        <v>95</v>
+        <v>2014</v>
       </c>
       <c r="I17" t="s">
         <v>78</v>
       </c>
       <c r="J17">
-        <v>0.30599999999999999</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K17">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="L17">
-        <v>55.000000000000014</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="M17">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -17448,10 +17125,10 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>343</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
         <v>81</v>
@@ -17460,19 +17137,16 @@
         <v>52</v>
       </c>
       <c r="E18">
-        <v>1958</v>
-      </c>
-      <c r="G18" t="s">
-        <v>95</v>
+        <v>2015</v>
       </c>
       <c r="I18" t="s">
         <v>78</v>
       </c>
       <c r="J18">
-        <v>0.14000000000000001</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="K18">
-        <v>3162.5000000000005</v>
+        <v>3162.5000000000009</v>
       </c>
       <c r="L18">
         <v>60.500000000000014</v>
@@ -17486,10 +17160,10 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>339</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>340</v>
       </c>
       <c r="C19" t="s">
         <v>81</v>
@@ -17498,25 +17172,22 @@
         <v>52</v>
       </c>
       <c r="E19">
-        <v>1965</v>
-      </c>
-      <c r="G19" t="s">
-        <v>90</v>
+        <v>2022</v>
       </c>
       <c r="I19" t="s">
         <v>78</v>
       </c>
       <c r="J19">
-        <v>0.13300000000000001</v>
+        <v>3.1750000000000007</v>
       </c>
       <c r="K19">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="L19">
-        <v>60.500000000000014</v>
+        <v>55</v>
       </c>
       <c r="M19">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -17524,10 +17195,10 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
         <v>81</v>
@@ -17536,7 +17207,7 @@
         <v>52</v>
       </c>
       <c r="E20">
-        <v>1962</v>
+        <v>1923</v>
       </c>
       <c r="G20" t="s">
         <v>84</v>
@@ -17545,7 +17216,7 @@
         <v>78</v>
       </c>
       <c r="J20">
-        <v>0.16500000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="K20">
         <v>3162.5000000000005</v>
@@ -17562,10 +17233,10 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
         <v>81</v>
@@ -17574,25 +17245,25 @@
         <v>52</v>
       </c>
       <c r="E21">
-        <v>1981</v>
+        <v>1962</v>
       </c>
       <c r="G21" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="I21" t="s">
         <v>78</v>
       </c>
       <c r="J21">
-        <v>0.38800000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="K21">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="L21">
-        <v>55.000000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="M21">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -17600,10 +17271,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
         <v>81</v>
@@ -17612,22 +17283,22 @@
         <v>52</v>
       </c>
       <c r="E22">
-        <v>1928</v>
+        <v>1966</v>
       </c>
       <c r="G22" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="I22" t="s">
         <v>78</v>
       </c>
       <c r="J22">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K22">
         <v>3162.5000000000005</v>
       </c>
       <c r="L22">
-        <v>60.500000000000021</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="M22">
         <v>2.3100000000000005</v>
@@ -17638,10 +17309,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>347</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>348</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
         <v>81</v>
@@ -17650,25 +17321,25 @@
         <v>52</v>
       </c>
       <c r="E23">
-        <v>2012</v>
+        <v>1959</v>
       </c>
       <c r="G23" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="I23" t="s">
         <v>78</v>
       </c>
       <c r="J23">
-        <v>0.09</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="K23">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="L23">
-        <v>60.500000000000007</v>
+        <v>55.000000000000014</v>
       </c>
       <c r="M23">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -17676,10 +17347,10 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s">
         <v>81</v>
@@ -17688,25 +17359,25 @@
         <v>52</v>
       </c>
       <c r="E24">
-        <v>1950</v>
+        <v>1999</v>
       </c>
       <c r="G24" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="I24" t="s">
         <v>78</v>
       </c>
       <c r="J24">
-        <v>0.126</v>
+        <v>1.26</v>
       </c>
       <c r="K24">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="L24">
-        <v>60.500000000000014</v>
+        <v>55.000000000000014</v>
       </c>
       <c r="M24">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -17714,10 +17385,10 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>349</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
-        <v>350</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
         <v>81</v>
@@ -17726,22 +17397,22 @@
         <v>52</v>
       </c>
       <c r="E25">
-        <v>1967</v>
+        <v>1955</v>
       </c>
       <c r="G25" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="I25" t="s">
         <v>78</v>
       </c>
       <c r="J25">
-        <v>8.5000000000000006E-2</v>
+        <v>0.1</v>
       </c>
       <c r="K25">
-        <v>3162.5000000000009</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="L25">
-        <v>60.500000000000014</v>
+        <v>60.500000000000021</v>
       </c>
       <c r="M25">
         <v>2.3100000000000005</v>
@@ -17752,10 +17423,10 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s">
         <v>81</v>
@@ -17764,25 +17435,25 @@
         <v>52</v>
       </c>
       <c r="E26">
-        <v>2016</v>
+        <v>1969</v>
       </c>
       <c r="G26" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="I26" t="s">
         <v>78</v>
       </c>
       <c r="J26">
-        <v>0.15</v>
+        <v>0.34</v>
       </c>
       <c r="K26">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="L26">
-        <v>60.500000000000014</v>
+        <v>55.000000000000014</v>
       </c>
       <c r="M26">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -17790,10 +17461,10 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="B27" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
         <v>81</v>
@@ -17802,22 +17473,22 @@
         <v>52</v>
       </c>
       <c r="E27">
-        <v>1943</v>
+        <v>1959</v>
       </c>
       <c r="G27" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="I27" t="s">
         <v>78</v>
       </c>
       <c r="J27">
-        <v>0.24</v>
+        <v>0.1</v>
       </c>
       <c r="K27">
         <v>3162.5000000000005</v>
       </c>
       <c r="L27">
-        <v>60.500000000000014</v>
+        <v>60.500000000000021</v>
       </c>
       <c r="M27">
         <v>2.3100000000000005</v>
@@ -17828,10 +17499,10 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="B28" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
         <v>81</v>
@@ -17840,19 +17511,19 @@
         <v>52</v>
       </c>
       <c r="E28">
-        <v>1978</v>
+        <v>1955</v>
       </c>
       <c r="G28" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I28" t="s">
         <v>78</v>
       </c>
       <c r="J28">
-        <v>0.17</v>
+        <v>0.114</v>
       </c>
       <c r="K28">
-        <v>3162.5000000000009</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="L28">
         <v>60.500000000000014</v>
@@ -17866,10 +17537,10 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B29" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C29" t="s">
         <v>81</v>
@@ -17878,28 +17549,25 @@
         <v>52</v>
       </c>
       <c r="E29">
-        <v>1976</v>
+        <v>1957</v>
       </c>
       <c r="G29" t="s">
         <v>95</v>
       </c>
-      <c r="H29" t="s">
-        <v>128</v>
-      </c>
       <c r="I29" t="s">
         <v>78</v>
       </c>
       <c r="J29">
-        <v>0.122</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="K29">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="L29">
-        <v>60.500000000000014</v>
+        <v>55.000000000000014</v>
       </c>
       <c r="M29">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -17907,10 +17575,10 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B30" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C30" t="s">
         <v>81</v>
@@ -17919,25 +17587,22 @@
         <v>52</v>
       </c>
       <c r="E30">
-        <v>1910</v>
+        <v>1958</v>
       </c>
       <c r="G30" t="s">
-        <v>87</v>
-      </c>
-      <c r="H30" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="I30" t="s">
         <v>78</v>
       </c>
       <c r="J30">
-        <v>0.19800000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K30">
         <v>3162.5000000000005</v>
       </c>
       <c r="L30">
-        <v>60.500000000000021</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="M30">
         <v>2.3100000000000005</v>
@@ -17948,10 +17613,10 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="B31" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="C31" t="s">
         <v>81</v>
@@ -17960,25 +17625,25 @@
         <v>52</v>
       </c>
       <c r="E31">
-        <v>1960</v>
+        <v>1965</v>
       </c>
       <c r="G31" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I31" t="s">
         <v>78</v>
       </c>
       <c r="J31">
-        <v>0.39200000000000002</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="K31">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="L31">
-        <v>55.000000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="M31">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -17986,10 +17651,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="B32" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s">
         <v>81</v>
@@ -17998,16 +17663,16 @@
         <v>52</v>
       </c>
       <c r="E32">
-        <v>1966</v>
+        <v>1962</v>
       </c>
       <c r="G32" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I32" t="s">
         <v>78</v>
       </c>
       <c r="J32">
-        <v>0.14099999999999999</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="K32">
         <v>3162.5000000000005</v>
@@ -18024,10 +17689,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="B33" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="C33" t="s">
         <v>81</v>
@@ -18036,25 +17701,25 @@
         <v>52</v>
       </c>
       <c r="E33">
-        <v>1962</v>
+        <v>1981</v>
       </c>
       <c r="G33" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="I33" t="s">
         <v>78</v>
       </c>
       <c r="J33">
-        <v>0.10199999999999999</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="K33">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="L33">
-        <v>60.500000000000021</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="M33">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -18062,10 +17727,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="B34" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="C34" t="s">
         <v>81</v>
@@ -18074,22 +17739,22 @@
         <v>52</v>
       </c>
       <c r="E34">
-        <v>1970</v>
+        <v>1928</v>
       </c>
       <c r="G34" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="I34" t="s">
         <v>78</v>
       </c>
       <c r="J34">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="K34">
         <v>3162.5000000000005</v>
       </c>
       <c r="L34">
-        <v>60.500000000000014</v>
+        <v>60.500000000000021</v>
       </c>
       <c r="M34">
         <v>2.3100000000000005</v>
@@ -18100,10 +17765,10 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="B35" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="C35" t="s">
         <v>81</v>
@@ -18112,16 +17777,16 @@
         <v>52</v>
       </c>
       <c r="E35">
-        <v>1956</v>
+        <v>1950</v>
       </c>
       <c r="G35" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="I35" t="s">
         <v>78</v>
       </c>
       <c r="J35">
-        <v>0.25800000000000001</v>
+        <v>0.126</v>
       </c>
       <c r="K35">
         <v>3162.5000000000005</v>
@@ -18138,10 +17803,10 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B36" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="C36" t="s">
         <v>81</v>
@@ -18150,16 +17815,16 @@
         <v>52</v>
       </c>
       <c r="E36">
-        <v>1958</v>
+        <v>2016</v>
       </c>
       <c r="G36" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="I36" t="s">
         <v>78</v>
       </c>
       <c r="J36">
-        <v>0.13500000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="K36">
         <v>3162.5000000000005</v>
@@ -18176,10 +17841,10 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>351</v>
+        <v>122</v>
       </c>
       <c r="B37" t="s">
-        <v>352</v>
+        <v>123</v>
       </c>
       <c r="C37" t="s">
         <v>81</v>
@@ -18188,25 +17853,22 @@
         <v>52</v>
       </c>
       <c r="E37">
-        <v>1957</v>
+        <v>1943</v>
       </c>
       <c r="G37" t="s">
-        <v>87</v>
-      </c>
-      <c r="H37" t="s">
-        <v>353</v>
+        <v>115</v>
       </c>
       <c r="I37" t="s">
         <v>78</v>
       </c>
       <c r="J37">
-        <v>8.5999999999999993E-2</v>
+        <v>0.24</v>
       </c>
       <c r="K37">
         <v>3162.5000000000005</v>
       </c>
       <c r="L37">
-        <v>60.500000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="M37">
         <v>2.3100000000000005</v>
@@ -18217,10 +17879,10 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="B38" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="C38" t="s">
         <v>81</v>
@@ -18232,19 +17894,19 @@
         <v>1978</v>
       </c>
       <c r="G38" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="I38" t="s">
         <v>78</v>
       </c>
       <c r="J38">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="K38">
-        <v>3162.5000000000005</v>
+        <v>3162.5000000000009</v>
       </c>
       <c r="L38">
-        <v>60.500000000000021</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="M38">
         <v>2.3100000000000005</v>
@@ -18255,10 +17917,10 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="B39" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="C39" t="s">
         <v>81</v>
@@ -18267,19 +17929,19 @@
         <v>52</v>
       </c>
       <c r="E39">
-        <v>1968</v>
+        <v>1976</v>
       </c>
       <c r="G39" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H39" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="I39" t="s">
         <v>78</v>
       </c>
       <c r="J39">
-        <v>0.15</v>
+        <v>0.122</v>
       </c>
       <c r="K39">
         <v>3162.5000000000005</v>
@@ -18296,10 +17958,10 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B40" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C40" t="s">
         <v>81</v>
@@ -18308,22 +17970,25 @@
         <v>52</v>
       </c>
       <c r="E40">
-        <v>1961</v>
+        <v>1910</v>
       </c>
       <c r="G40" t="s">
         <v>87</v>
       </c>
+      <c r="H40" t="s">
+        <v>131</v>
+      </c>
       <c r="I40" t="s">
         <v>78</v>
       </c>
       <c r="J40">
-        <v>0.247</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="K40">
         <v>3162.5000000000005</v>
       </c>
       <c r="L40">
-        <v>60.500000000000014</v>
+        <v>60.500000000000021</v>
       </c>
       <c r="M40">
         <v>2.3100000000000005</v>
@@ -18334,10 +17999,10 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>354</v>
+        <v>132</v>
       </c>
       <c r="B41" t="s">
-        <v>355</v>
+        <v>133</v>
       </c>
       <c r="C41" t="s">
         <v>81</v>
@@ -18346,25 +18011,25 @@
         <v>52</v>
       </c>
       <c r="E41">
-        <v>2015</v>
+        <v>1960</v>
       </c>
       <c r="G41" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="I41" t="s">
         <v>78</v>
       </c>
       <c r="J41">
-        <v>8.3000000000000004E-2</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="K41">
-        <v>3162.5000000000009</v>
+        <v>2750</v>
       </c>
       <c r="L41">
-        <v>60.500000000000014</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="M41">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -18372,10 +18037,10 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="B42" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C42" t="s">
         <v>81</v>
@@ -18384,22 +18049,22 @@
         <v>52</v>
       </c>
       <c r="E42">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="G42" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I42" t="s">
         <v>78</v>
       </c>
       <c r="J42">
-        <v>0.185</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="K42">
         <v>3162.5000000000005</v>
       </c>
       <c r="L42">
-        <v>60.500000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="M42">
         <v>2.3100000000000005</v>
@@ -18410,10 +18075,10 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B43" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="C43" t="s">
         <v>81</v>
@@ -18425,19 +18090,19 @@
         <v>1962</v>
       </c>
       <c r="G43" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I43" t="s">
         <v>78</v>
       </c>
       <c r="J43">
-        <v>0.18</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="K43">
         <v>3162.5000000000005</v>
       </c>
       <c r="L43">
-        <v>60.500000000000007</v>
+        <v>60.500000000000021</v>
       </c>
       <c r="M43">
         <v>2.3100000000000005</v>
@@ -18448,10 +18113,10 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="B44" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="C44" t="s">
         <v>81</v>
@@ -18460,28 +18125,25 @@
         <v>52</v>
       </c>
       <c r="E44">
-        <v>1964</v>
+        <v>1970</v>
       </c>
       <c r="G44" t="s">
-        <v>158</v>
-      </c>
-      <c r="H44" t="s">
-        <v>159</v>
+        <v>87</v>
       </c>
       <c r="I44" t="s">
         <v>78</v>
       </c>
       <c r="J44">
-        <v>0.35199999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="K44">
-        <v>2750</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="L44">
-        <v>55.000000000000007</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="M44">
-        <v>2.1</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -18489,10 +18151,10 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="B45" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="C45" t="s">
         <v>81</v>
@@ -18501,16 +18163,16 @@
         <v>52</v>
       </c>
       <c r="E45">
-        <v>1953</v>
+        <v>1956</v>
       </c>
       <c r="G45" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="I45" t="s">
         <v>78</v>
       </c>
       <c r="J45">
-        <v>0.11899999999999999</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="K45">
         <v>3162.5000000000005</v>
@@ -18527,10 +18189,10 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="B46" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="C46" t="s">
         <v>81</v>
@@ -18539,16 +18201,16 @@
         <v>52</v>
       </c>
       <c r="E46">
-        <v>1943</v>
+        <v>1958</v>
       </c>
       <c r="G46" t="s">
-        <v>164</v>
+        <v>87</v>
       </c>
       <c r="I46" t="s">
         <v>78</v>
       </c>
       <c r="J46">
-        <v>0.10299999999999999</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="K46">
         <v>3162.5000000000005</v>
@@ -18565,10 +18227,10 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="B47" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="C47" t="s">
         <v>81</v>
@@ -18577,22 +18239,22 @@
         <v>52</v>
       </c>
       <c r="E47">
-        <v>1928</v>
+        <v>1978</v>
       </c>
       <c r="G47" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="I47" t="s">
         <v>78</v>
       </c>
       <c r="J47">
-        <v>0.107</v>
+        <v>0.1</v>
       </c>
       <c r="K47">
         <v>3162.5000000000005</v>
       </c>
       <c r="L47">
-        <v>60.500000000000014</v>
+        <v>60.500000000000021</v>
       </c>
       <c r="M47">
         <v>2.3100000000000005</v>
@@ -18603,10 +18265,10 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>356</v>
+        <v>147</v>
       </c>
       <c r="B48" t="s">
-        <v>357</v>
+        <v>148</v>
       </c>
       <c r="C48" t="s">
         <v>81</v>
@@ -18615,16 +18277,19 @@
         <v>52</v>
       </c>
       <c r="E48">
-        <v>1947</v>
+        <v>1968</v>
       </c>
       <c r="G48" t="s">
-        <v>90</v>
+        <v>87</v>
+      </c>
+      <c r="H48" t="s">
+        <v>149</v>
       </c>
       <c r="I48" t="s">
         <v>78</v>
       </c>
       <c r="J48">
-        <v>0.06</v>
+        <v>0.15</v>
       </c>
       <c r="K48">
         <v>3162.5000000000005</v>
@@ -18641,10 +18306,10 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>358</v>
+        <v>150</v>
       </c>
       <c r="B49" t="s">
-        <v>359</v>
+        <v>151</v>
       </c>
       <c r="C49" t="s">
         <v>81</v>
@@ -18653,25 +18318,25 @@
         <v>52</v>
       </c>
       <c r="E49">
-        <v>1907</v>
+        <v>1961</v>
       </c>
       <c r="G49" t="s">
-        <v>360</v>
+        <v>87</v>
       </c>
       <c r="I49" t="s">
         <v>78</v>
       </c>
       <c r="J49">
-        <v>0.05</v>
+        <v>0.247</v>
       </c>
       <c r="K49">
-        <v>3712.5000000000005</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="L49">
-        <v>71.5</v>
+        <v>60.500000000000014</v>
       </c>
       <c r="M49">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -18679,10 +18344,10 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>361</v>
+        <v>152</v>
       </c>
       <c r="B50" t="s">
-        <v>362</v>
+        <v>153</v>
       </c>
       <c r="C50" t="s">
         <v>81</v>
@@ -18691,25 +18356,22 @@
         <v>52</v>
       </c>
       <c r="E50">
-        <v>1957</v>
+        <v>1965</v>
       </c>
       <c r="G50" t="s">
-        <v>363</v>
-      </c>
-      <c r="H50" t="s">
-        <v>364</v>
+        <v>95</v>
       </c>
       <c r="I50" t="s">
         <v>78</v>
       </c>
       <c r="J50">
-        <v>6.6000000000000003E-2</v>
+        <v>0.185</v>
       </c>
       <c r="K50">
         <v>3162.5000000000005</v>
       </c>
       <c r="L50">
-        <v>60.500000000000014</v>
+        <v>60.500000000000007</v>
       </c>
       <c r="M50">
         <v>2.3100000000000005</v>
@@ -18720,10 +18382,10 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>365</v>
+        <v>154</v>
       </c>
       <c r="B51" t="s">
-        <v>366</v>
+        <v>155</v>
       </c>
       <c r="C51" t="s">
         <v>81</v>
@@ -18732,28 +18394,25 @@
         <v>52</v>
       </c>
       <c r="E51">
-        <v>1992</v>
+        <v>1962</v>
       </c>
       <c r="G51" t="s">
-        <v>367</v>
-      </c>
-      <c r="H51" t="s">
-        <v>368</v>
+        <v>87</v>
       </c>
       <c r="I51" t="s">
         <v>78</v>
       </c>
       <c r="J51">
-        <v>0.05</v>
+        <v>0.18</v>
       </c>
       <c r="K51">
-        <v>3712.5000000000005</v>
+        <v>3162.5000000000005</v>
       </c>
       <c r="L51">
-        <v>71.5</v>
+        <v>60.500000000000007</v>
       </c>
       <c r="M51">
-        <v>2.52</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -18761,10 +18420,10 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>369</v>
+        <v>156</v>
       </c>
       <c r="B52" t="s">
-        <v>370</v>
+        <v>157</v>
       </c>
       <c r="C52" t="s">
         <v>81</v>
@@ -18773,25 +18432,28 @@
         <v>52</v>
       </c>
       <c r="E52">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="G52" t="s">
-        <v>115</v>
+        <v>158</v>
+      </c>
+      <c r="H52" t="s">
+        <v>159</v>
       </c>
       <c r="I52" t="s">
         <v>78</v>
       </c>
       <c r="J52">
-        <v>6.2E-2</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="K52">
-        <v>3162.5000000000005</v>
+        <v>2750</v>
       </c>
       <c r="L52">
-        <v>60.500000000000014</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="M52">
-        <v>2.3100000000000005</v>
+        <v>2.1</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -18799,10 +18461,10 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>371</v>
+        <v>160</v>
       </c>
       <c r="B53" t="s">
-        <v>372</v>
+        <v>161</v>
       </c>
       <c r="C53" t="s">
         <v>81</v>
@@ -18811,16 +18473,16 @@
         <v>52</v>
       </c>
       <c r="E53">
-        <v>1926</v>
+        <v>1953</v>
       </c>
       <c r="G53" t="s">
-        <v>169</v>
+        <v>90</v>
       </c>
       <c r="I53" t="s">
         <v>78</v>
       </c>
       <c r="J53">
-        <v>5.1999999999999998E-2</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="K53">
         <v>3162.5000000000005</v>
@@ -18837,10 +18499,10 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>373</v>
+        <v>162</v>
       </c>
       <c r="B54" t="s">
-        <v>374</v>
+        <v>163</v>
       </c>
       <c r="C54" t="s">
         <v>81</v>
@@ -18849,19 +18511,16 @@
         <v>52</v>
       </c>
       <c r="E54">
-        <v>1954</v>
+        <v>1943</v>
       </c>
       <c r="G54" t="s">
-        <v>375</v>
-      </c>
-      <c r="H54" t="s">
-        <v>376</v>
+        <v>164</v>
       </c>
       <c r="I54" t="s">
         <v>78</v>
       </c>
       <c r="J54">
-        <v>7.0000000000000007E-2</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="K54">
         <v>3162.5000000000005</v>
@@ -18878,10 +18537,10 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>377</v>
+        <v>165</v>
       </c>
       <c r="B55" t="s">
-        <v>378</v>
+        <v>166</v>
       </c>
       <c r="C55" t="s">
         <v>81</v>
@@ -18890,16 +18549,16 @@
         <v>52</v>
       </c>
       <c r="E55">
-        <v>1921</v>
+        <v>1928</v>
       </c>
       <c r="G55" t="s">
-        <v>379</v>
+        <v>95</v>
       </c>
       <c r="I55" t="s">
         <v>78</v>
       </c>
       <c r="J55">
-        <v>5.3999999999999999E-2</v>
+        <v>0.107</v>
       </c>
       <c r="K55">
         <v>3162.5000000000005</v>
@@ -18916,10 +18575,10 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>380</v>
+        <v>344</v>
       </c>
       <c r="B56" t="s">
-        <v>381</v>
+        <v>76</v>
       </c>
       <c r="C56" t="s">
         <v>81</v>
@@ -18928,28 +18587,22 @@
         <v>52</v>
       </c>
       <c r="E56">
-        <v>1958</v>
-      </c>
-      <c r="G56" t="s">
-        <v>382</v>
-      </c>
-      <c r="H56" t="s">
-        <v>383</v>
+        <v>1926</v>
       </c>
       <c r="I56" t="s">
         <v>78</v>
       </c>
       <c r="J56">
-        <v>0.05</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="K56">
-        <v>3712.5000000000005</v>
+        <v>2277</v>
       </c>
       <c r="L56">
-        <v>71.5</v>
+        <v>48.400000000000006</v>
       </c>
       <c r="M56">
-        <v>2.52</v>
+        <v>1.7325000000000002</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -18957,10 +18610,10 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="B57" t="s">
-        <v>385</v>
+        <v>76</v>
       </c>
       <c r="C57" t="s">
         <v>81</v>
@@ -18969,25 +18622,22 @@
         <v>52</v>
       </c>
       <c r="E57">
-        <v>2014</v>
-      </c>
-      <c r="G57" t="s">
-        <v>345</v>
+        <v>1955</v>
       </c>
       <c r="I57" t="s">
         <v>78</v>
       </c>
       <c r="J57">
-        <v>7.0000000000000007E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="K57">
-        <v>3162.5000000000005</v>
+        <v>2277</v>
       </c>
       <c r="L57">
-        <v>60.500000000000014</v>
+        <v>48.400000000000006</v>
       </c>
       <c r="M57">
-        <v>2.3100000000000005</v>
+        <v>1.7325000000000002</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -18995,10 +18645,10 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>167</v>
+        <v>344</v>
       </c>
       <c r="B58" t="s">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="C58" t="s">
         <v>81</v>
@@ -19007,16 +18657,13 @@
         <v>52</v>
       </c>
       <c r="E58">
-        <v>1937</v>
-      </c>
-      <c r="G58" t="s">
-        <v>169</v>
+        <v>1958</v>
       </c>
       <c r="I58" t="s">
         <v>78</v>
       </c>
       <c r="J58">
-        <v>0.13500000000000001</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="K58">
         <v>2277</v>
@@ -19025,7 +18672,7 @@
         <v>48.400000000000006</v>
       </c>
       <c r="M58">
-        <v>1.7325000000000002</v>
+        <v>1.7325000000000004</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -19033,10 +18680,10 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>170</v>
+        <v>344</v>
       </c>
       <c r="B59" t="s">
-        <v>171</v>
+        <v>76</v>
       </c>
       <c r="C59" t="s">
         <v>81</v>
@@ -19045,25 +18692,19 @@
         <v>52</v>
       </c>
       <c r="E59">
-        <v>1962</v>
-      </c>
-      <c r="G59" t="s">
-        <v>87</v>
-      </c>
-      <c r="H59" t="s">
-        <v>172</v>
+        <v>1966</v>
       </c>
       <c r="I59" t="s">
         <v>78</v>
       </c>
       <c r="J59">
-        <v>0.18</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="K59">
         <v>2277</v>
       </c>
       <c r="L59">
-        <v>48.400000000000013</v>
+        <v>48.400000000000006</v>
       </c>
       <c r="M59">
         <v>1.7325000000000002</v>
@@ -19074,10 +18715,10 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>173</v>
+        <v>344</v>
       </c>
       <c r="B60" t="s">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="C60" t="s">
         <v>81</v>
@@ -19086,22 +18727,19 @@
         <v>52</v>
       </c>
       <c r="E60">
-        <v>1923</v>
-      </c>
-      <c r="G60" t="s">
-        <v>95</v>
+        <v>1976</v>
       </c>
       <c r="I60" t="s">
         <v>78</v>
       </c>
       <c r="J60">
-        <v>0.112</v>
+        <v>5.5E-2</v>
       </c>
       <c r="K60">
         <v>2277</v>
       </c>
       <c r="L60">
-        <v>48.400000000000013</v>
+        <v>48.400000000000006</v>
       </c>
       <c r="M60">
         <v>1.7325000000000002</v>
@@ -19112,10 +18750,10 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B61" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C61" t="s">
         <v>81</v>
@@ -19124,28 +18762,25 @@
         <v>52</v>
       </c>
       <c r="E61">
-        <v>2016</v>
+        <v>1937</v>
       </c>
       <c r="G61" t="s">
-        <v>158</v>
-      </c>
-      <c r="H61" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="I61" t="s">
         <v>78</v>
       </c>
       <c r="J61">
-        <v>1</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="K61">
-        <v>1980.0000000000002</v>
+        <v>2277</v>
       </c>
       <c r="L61">
-        <v>44</v>
+        <v>48.400000000000006</v>
       </c>
       <c r="M61">
-        <v>1.5750000000000002</v>
+        <v>1.7325000000000002</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -19153,10 +18788,10 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B62" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C62" t="s">
         <v>81</v>
@@ -19165,22 +18800,25 @@
         <v>52</v>
       </c>
       <c r="E62">
-        <v>1977</v>
+        <v>1962</v>
       </c>
       <c r="G62" t="s">
-        <v>146</v>
+        <v>87</v>
+      </c>
+      <c r="H62" t="s">
+        <v>172</v>
       </c>
       <c r="I62" t="s">
         <v>78</v>
       </c>
       <c r="J62">
-        <v>0.28000000000000003</v>
+        <v>0.18</v>
       </c>
       <c r="K62">
         <v>2277</v>
       </c>
       <c r="L62">
-        <v>48.400000000000006</v>
+        <v>48.400000000000013</v>
       </c>
       <c r="M62">
         <v>1.7325000000000002</v>
@@ -19191,10 +18829,10 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B63" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C63" t="s">
         <v>81</v>
@@ -19203,7 +18841,7 @@
         <v>52</v>
       </c>
       <c r="E63">
-        <v>2022</v>
+        <v>1923</v>
       </c>
       <c r="G63" t="s">
         <v>95</v>
@@ -19212,16 +18850,16 @@
         <v>78</v>
       </c>
       <c r="J63">
-        <v>0.9</v>
+        <v>0.112</v>
       </c>
       <c r="K63">
-        <v>1980.0000000000002</v>
+        <v>2277</v>
       </c>
       <c r="L63">
-        <v>44</v>
+        <v>48.400000000000013</v>
       </c>
       <c r="M63">
-        <v>1.5750000000000002</v>
+        <v>1.7325000000000002</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -19229,10 +18867,10 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B64" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C64" t="s">
         <v>81</v>
@@ -19241,7 +18879,7 @@
         <v>52</v>
       </c>
       <c r="E64">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="G64" t="s">
         <v>158</v>
@@ -19253,16 +18891,16 @@
         <v>78</v>
       </c>
       <c r="J64">
-        <v>0.13100000000000001</v>
+        <v>1</v>
       </c>
       <c r="K64">
-        <v>2277</v>
+        <v>1980.0000000000002</v>
       </c>
       <c r="L64">
-        <v>48.400000000000006</v>
+        <v>44</v>
       </c>
       <c r="M64">
-        <v>1.7325000000000002</v>
+        <v>1.5750000000000002</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -19270,10 +18908,10 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B65" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C65" t="s">
         <v>81</v>
@@ -19282,16 +18920,16 @@
         <v>52</v>
       </c>
       <c r="E65">
-        <v>2026</v>
+        <v>1977</v>
       </c>
       <c r="G65" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="I65" t="s">
         <v>78</v>
       </c>
       <c r="J65">
-        <v>0.12</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K65">
         <v>2277</v>
@@ -19308,10 +18946,10 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B66" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C66" t="s">
         <v>81</v>
@@ -19320,25 +18958,25 @@
         <v>52</v>
       </c>
       <c r="E66">
-        <v>1968</v>
+        <v>2022</v>
       </c>
       <c r="G66" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="I66" t="s">
         <v>78</v>
       </c>
       <c r="J66">
-        <v>0.192</v>
+        <v>0.9</v>
       </c>
       <c r="K66">
-        <v>2277</v>
+        <v>1980.0000000000002</v>
       </c>
       <c r="L66">
-        <v>48.400000000000006</v>
+        <v>44</v>
       </c>
       <c r="M66">
-        <v>1.7325000000000002</v>
+        <v>1.5750000000000002</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -19346,10 +18984,10 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B67" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C67" t="s">
         <v>81</v>
@@ -19358,16 +18996,19 @@
         <v>52</v>
       </c>
       <c r="E67">
-        <v>1972</v>
+        <v>2009</v>
       </c>
       <c r="G67" t="s">
-        <v>189</v>
+        <v>158</v>
+      </c>
+      <c r="H67" t="s">
+        <v>159</v>
       </c>
       <c r="I67" t="s">
         <v>78</v>
       </c>
       <c r="J67">
-        <v>0.24</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="K67">
         <v>2277</v>
@@ -19384,10 +19025,10 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B68" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C68" t="s">
         <v>81</v>
@@ -19396,16 +19037,16 @@
         <v>52</v>
       </c>
       <c r="E68">
-        <v>2017</v>
+        <v>2026</v>
       </c>
       <c r="G68" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="I68" t="s">
         <v>78</v>
       </c>
       <c r="J68">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="K68">
         <v>2277</v>
@@ -19422,10 +19063,10 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>386</v>
+        <v>185</v>
       </c>
       <c r="B69" t="s">
-        <v>387</v>
+        <v>186</v>
       </c>
       <c r="C69" t="s">
         <v>81</v>
@@ -19434,19 +19075,16 @@
         <v>52</v>
       </c>
       <c r="E69">
-        <v>1958</v>
+        <v>1968</v>
       </c>
       <c r="G69" t="s">
-        <v>95</v>
-      </c>
-      <c r="H69" t="s">
-        <v>383</v>
+        <v>90</v>
       </c>
       <c r="I69" t="s">
         <v>78</v>
       </c>
       <c r="J69">
-        <v>8.8999999999999996E-2</v>
+        <v>0.192</v>
       </c>
       <c r="K69">
         <v>2277</v>
@@ -19455,7 +19093,7 @@
         <v>48.400000000000006</v>
       </c>
       <c r="M69">
-        <v>1.7325000000000004</v>
+        <v>1.7325000000000002</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -19463,10 +19101,10 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>388</v>
+        <v>187</v>
       </c>
       <c r="B70" t="s">
-        <v>389</v>
+        <v>188</v>
       </c>
       <c r="C70" t="s">
         <v>81</v>
@@ -19475,16 +19113,16 @@
         <v>52</v>
       </c>
       <c r="E70">
-        <v>1976</v>
+        <v>1972</v>
       </c>
       <c r="G70" t="s">
-        <v>115</v>
+        <v>189</v>
       </c>
       <c r="I70" t="s">
         <v>78</v>
       </c>
       <c r="J70">
-        <v>5.5E-2</v>
+        <v>0.24</v>
       </c>
       <c r="K70">
         <v>2277</v>
@@ -19501,10 +19139,10 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>390</v>
+        <v>190</v>
       </c>
       <c r="B71" t="s">
-        <v>391</v>
+        <v>191</v>
       </c>
       <c r="C71" t="s">
         <v>81</v>
@@ -19513,16 +19151,16 @@
         <v>52</v>
       </c>
       <c r="E71">
-        <v>1955</v>
+        <v>2017</v>
       </c>
       <c r="G71" t="s">
-        <v>90</v>
+        <v>189</v>
       </c>
       <c r="I71" t="s">
         <v>78</v>
       </c>
       <c r="J71">
-        <v>5.3999999999999999E-2</v>
+        <v>0.24</v>
       </c>
       <c r="K71">
         <v>2277</v>
@@ -19539,10 +19177,10 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>392</v>
+        <v>192</v>
       </c>
       <c r="B72" t="s">
-        <v>393</v>
+        <v>76</v>
       </c>
       <c r="C72" t="s">
         <v>81</v>
@@ -19551,25 +19189,22 @@
         <v>52</v>
       </c>
       <c r="E72">
-        <v>1926</v>
-      </c>
-      <c r="G72" t="s">
-        <v>169</v>
+        <v>1908</v>
       </c>
       <c r="I72" t="s">
         <v>78</v>
       </c>
       <c r="J72">
-        <v>6.6000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="K72">
-        <v>2277</v>
+        <v>2783</v>
       </c>
       <c r="L72">
-        <v>48.400000000000006</v>
+        <v>66.550000000000011</v>
       </c>
       <c r="M72">
-        <v>1.7325000000000002</v>
+        <v>2.8875000000000002</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -19577,10 +19212,10 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>394</v>
+        <v>192</v>
       </c>
       <c r="B73" t="s">
-        <v>395</v>
+        <v>76</v>
       </c>
       <c r="C73" t="s">
         <v>81</v>
@@ -19589,25 +19224,22 @@
         <v>52</v>
       </c>
       <c r="E73">
-        <v>1966</v>
-      </c>
-      <c r="G73" t="s">
-        <v>396</v>
+        <v>1920</v>
       </c>
       <c r="I73" t="s">
         <v>78</v>
       </c>
       <c r="J73">
-        <v>7.3999999999999996E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="K73">
-        <v>2277</v>
+        <v>3267.0000000000005</v>
       </c>
       <c r="L73">
-        <v>48.400000000000006</v>
+        <v>78.650000000000006</v>
       </c>
       <c r="M73">
-        <v>1.7325000000000002</v>
+        <v>3.1500000000000008</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -19627,22 +19259,22 @@
         <v>52</v>
       </c>
       <c r="E74">
-        <v>1920</v>
+        <v>1925</v>
       </c>
       <c r="I74" t="s">
         <v>78</v>
       </c>
       <c r="J74">
-        <v>9.1999999999999998E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="K74">
-        <v>3267.0000000000005</v>
+        <v>2783</v>
       </c>
       <c r="L74">
-        <v>78.650000000000006</v>
+        <v>66.550000000000011</v>
       </c>
       <c r="M74">
-        <v>3.1500000000000008</v>
+        <v>2.8875000000000002</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -19650,10 +19282,10 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>397</v>
+        <v>192</v>
       </c>
       <c r="B75" t="s">
-        <v>398</v>
+        <v>76</v>
       </c>
       <c r="C75" t="s">
         <v>81</v>
@@ -19662,19 +19294,13 @@
         <v>52</v>
       </c>
       <c r="E75">
-        <v>1950</v>
-      </c>
-      <c r="G75" t="s">
-        <v>189</v>
-      </c>
-      <c r="H75" t="s">
-        <v>399</v>
+        <v>1932</v>
       </c>
       <c r="I75" t="s">
         <v>78</v>
       </c>
       <c r="J75">
-        <v>9.2999999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="K75">
         <v>2783</v>
@@ -19691,10 +19317,10 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>400</v>
+        <v>192</v>
       </c>
       <c r="B76" t="s">
-        <v>401</v>
+        <v>76</v>
       </c>
       <c r="C76" t="s">
         <v>81</v>
@@ -19703,16 +19329,13 @@
         <v>52</v>
       </c>
       <c r="E76">
-        <v>1959</v>
-      </c>
-      <c r="G76" t="s">
-        <v>87</v>
+        <v>1947</v>
       </c>
       <c r="I76" t="s">
         <v>78</v>
       </c>
       <c r="J76">
-        <v>8.5999999999999993E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="K76">
         <v>2783</v>
@@ -19729,10 +19352,10 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>402</v>
+        <v>192</v>
       </c>
       <c r="B77" t="s">
-        <v>403</v>
+        <v>76</v>
       </c>
       <c r="C77" t="s">
         <v>81</v>
@@ -19741,16 +19364,13 @@
         <v>52</v>
       </c>
       <c r="E77">
-        <v>1908</v>
-      </c>
-      <c r="G77" t="s">
-        <v>158</v>
+        <v>1950</v>
       </c>
       <c r="I77" t="s">
         <v>78</v>
       </c>
       <c r="J77">
-        <v>8.1000000000000003E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="K77">
         <v>2783</v>
@@ -19767,10 +19387,10 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>404</v>
+        <v>192</v>
       </c>
       <c r="B78" t="s">
-        <v>405</v>
+        <v>76</v>
       </c>
       <c r="C78" t="s">
         <v>81</v>
@@ -19779,25 +19399,22 @@
         <v>52</v>
       </c>
       <c r="E78">
-        <v>1960</v>
-      </c>
-      <c r="G78" t="s">
-        <v>406</v>
+        <v>1952</v>
       </c>
       <c r="I78" t="s">
         <v>78</v>
       </c>
       <c r="J78">
-        <v>5.1999999999999998E-2</v>
+        <v>0.111</v>
       </c>
       <c r="K78">
-        <v>2783</v>
+        <v>3001.0180180180182</v>
       </c>
       <c r="L78">
-        <v>66.550000000000011</v>
+        <v>72.000450450450458</v>
       </c>
       <c r="M78">
-        <v>2.8875000000000002</v>
+        <v>3.0057432432432436</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -19805,10 +19422,10 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>407</v>
+        <v>192</v>
       </c>
       <c r="B79" t="s">
-        <v>408</v>
+        <v>76</v>
       </c>
       <c r="C79" t="s">
         <v>81</v>
@@ -19817,16 +19434,13 @@
         <v>52</v>
       </c>
       <c r="E79">
-        <v>1925</v>
-      </c>
-      <c r="G79" t="s">
-        <v>409</v>
+        <v>1958</v>
       </c>
       <c r="I79" t="s">
         <v>78</v>
       </c>
       <c r="J79">
-        <v>5.3999999999999999E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="K79">
         <v>2783</v>
@@ -19843,10 +19457,10 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>410</v>
+        <v>192</v>
       </c>
       <c r="B80" t="s">
-        <v>411</v>
+        <v>76</v>
       </c>
       <c r="C80" t="s">
         <v>81</v>
@@ -19855,16 +19469,13 @@
         <v>52</v>
       </c>
       <c r="E80">
-        <v>1975</v>
-      </c>
-      <c r="G80" t="s">
-        <v>412</v>
+        <v>1959</v>
       </c>
       <c r="I80" t="s">
         <v>78</v>
       </c>
       <c r="J80">
-        <v>6.4000000000000001E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="K80">
         <v>2783</v>
@@ -19881,10 +19492,10 @@
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>413</v>
+        <v>192</v>
       </c>
       <c r="B81" t="s">
-        <v>414</v>
+        <v>76</v>
       </c>
       <c r="C81" t="s">
         <v>81</v>
@@ -19893,19 +19504,13 @@
         <v>52</v>
       </c>
       <c r="E81">
-        <v>1967</v>
-      </c>
-      <c r="G81" t="s">
-        <v>375</v>
-      </c>
-      <c r="H81" t="s">
-        <v>415</v>
+        <v>1960</v>
       </c>
       <c r="I81" t="s">
         <v>78</v>
       </c>
       <c r="J81">
-        <v>6.5000000000000002E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="K81">
         <v>2783</v>
@@ -19922,10 +19527,10 @@
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>416</v>
+        <v>192</v>
       </c>
       <c r="B82" t="s">
-        <v>417</v>
+        <v>76</v>
       </c>
       <c r="C82" t="s">
         <v>81</v>
@@ -19934,16 +19539,13 @@
         <v>52</v>
       </c>
       <c r="E82">
-        <v>1952</v>
-      </c>
-      <c r="G82" t="s">
-        <v>418</v>
+        <v>1967</v>
       </c>
       <c r="I82" t="s">
         <v>78</v>
       </c>
       <c r="J82">
-        <v>6.0999999999999999E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K82">
         <v>2783</v>
@@ -19960,10 +19562,10 @@
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>419</v>
+        <v>192</v>
       </c>
       <c r="B83" t="s">
-        <v>420</v>
+        <v>76</v>
       </c>
       <c r="C83" t="s">
         <v>81</v>
@@ -19972,16 +19574,13 @@
         <v>52</v>
       </c>
       <c r="E83">
-        <v>1932</v>
-      </c>
-      <c r="G83" t="s">
-        <v>90</v>
+        <v>1975</v>
       </c>
       <c r="I83" t="s">
         <v>78</v>
       </c>
       <c r="J83">
-        <v>7.2999999999999995E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="K83">
         <v>2783</v>
@@ -19998,124 +19597,196 @@
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>421</v>
+        <v>193</v>
       </c>
       <c r="B84" t="s">
-        <v>422</v>
+        <v>194</v>
       </c>
       <c r="C84" t="s">
-        <v>81</v>
+        <v>195</v>
       </c>
       <c r="D84" t="s">
         <v>52</v>
       </c>
       <c r="E84">
-        <v>1958</v>
+        <v>1984</v>
       </c>
       <c r="G84" t="s">
-        <v>423</v>
+        <v>196</v>
       </c>
       <c r="I84" t="s">
         <v>78</v>
       </c>
       <c r="J84">
-        <v>6.2E-2</v>
+        <v>1.2749999999999999</v>
       </c>
       <c r="K84">
-        <v>2783</v>
+        <v>7150.0000000000018</v>
       </c>
       <c r="L84">
-        <v>66.550000000000011</v>
+        <v>165</v>
       </c>
       <c r="M84">
-        <v>2.8875000000000002</v>
+        <v>4.2</v>
       </c>
       <c r="N84">
         <v>1</v>
       </c>
+      <c r="O84">
+        <v>70</v>
+      </c>
+      <c r="P84">
+        <v>24</v>
+      </c>
+      <c r="Q84">
+        <v>24</v>
+      </c>
+      <c r="R84">
+        <v>5</v>
+      </c>
+      <c r="S84">
+        <v>5</v>
+      </c>
+      <c r="T84">
+        <v>48</v>
+      </c>
+      <c r="U84">
+        <v>100</v>
+      </c>
+      <c r="V84">
+        <v>50</v>
+      </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>424</v>
+        <v>197</v>
       </c>
       <c r="B85" t="s">
-        <v>425</v>
+        <v>198</v>
       </c>
       <c r="C85" t="s">
-        <v>81</v>
+        <v>195</v>
       </c>
       <c r="D85" t="s">
         <v>52</v>
       </c>
       <c r="E85">
-        <v>1947</v>
+        <v>1979</v>
       </c>
       <c r="G85" t="s">
-        <v>426</v>
+        <v>199</v>
       </c>
       <c r="I85" t="s">
         <v>78</v>
       </c>
       <c r="J85">
-        <v>5.7000000000000002E-2</v>
+        <v>1.06</v>
       </c>
       <c r="K85">
-        <v>2783</v>
+        <v>7150.0000000000009</v>
       </c>
       <c r="L85">
-        <v>66.550000000000011</v>
+        <v>165</v>
       </c>
       <c r="M85">
-        <v>2.8875000000000002</v>
+        <v>4.2</v>
       </c>
       <c r="N85">
         <v>1</v>
       </c>
+      <c r="O85">
+        <v>70</v>
+      </c>
+      <c r="P85">
+        <v>24</v>
+      </c>
+      <c r="Q85">
+        <v>24</v>
+      </c>
+      <c r="R85">
+        <v>5</v>
+      </c>
+      <c r="S85">
+        <v>5</v>
+      </c>
+      <c r="T85">
+        <v>48</v>
+      </c>
+      <c r="U85">
+        <v>100</v>
+      </c>
+      <c r="V85">
+        <v>50</v>
+      </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>427</v>
+        <v>200</v>
       </c>
       <c r="B86" t="s">
-        <v>428</v>
+        <v>201</v>
       </c>
       <c r="C86" t="s">
-        <v>81</v>
+        <v>195</v>
       </c>
       <c r="D86" t="s">
         <v>52</v>
       </c>
       <c r="E86">
-        <v>1952</v>
+        <v>1969</v>
       </c>
       <c r="G86" t="s">
-        <v>429</v>
+        <v>196</v>
       </c>
       <c r="I86" t="s">
         <v>78</v>
       </c>
       <c r="J86">
-        <v>0.05</v>
+        <v>0.38</v>
       </c>
       <c r="K86">
-        <v>3267.0000000000005</v>
+        <v>7150.0000000000009</v>
       </c>
       <c r="L86">
-        <v>78.650000000000006</v>
+        <v>165</v>
       </c>
       <c r="M86">
-        <v>3.1500000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="N86">
         <v>1</v>
       </c>
+      <c r="O86">
+        <v>70</v>
+      </c>
+      <c r="P86">
+        <v>24</v>
+      </c>
+      <c r="Q86">
+        <v>24</v>
+      </c>
+      <c r="R86">
+        <v>5</v>
+      </c>
+      <c r="S86">
+        <v>5</v>
+      </c>
+      <c r="T86">
+        <v>48</v>
+      </c>
+      <c r="U86">
+        <v>100</v>
+      </c>
+      <c r="V86">
+        <v>50</v>
+      </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="B87" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="C87" t="s">
         <v>195</v>
@@ -20124,7 +19795,7 @@
         <v>52</v>
       </c>
       <c r="E87">
-        <v>1984</v>
+        <v>1972</v>
       </c>
       <c r="G87" t="s">
         <v>196</v>
@@ -20133,10 +19804,10 @@
         <v>78</v>
       </c>
       <c r="J87">
-        <v>1.2749999999999999</v>
+        <v>0.38</v>
       </c>
       <c r="K87">
-        <v>7150.0000000000018</v>
+        <v>7150.0000000000009</v>
       </c>
       <c r="L87">
         <v>165</v>
@@ -20174,188 +19845,107 @@
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>197</v>
+        <v>341</v>
       </c>
       <c r="B88" t="s">
-        <v>198</v>
+        <v>76</v>
       </c>
       <c r="C88" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="D88" t="s">
         <v>52</v>
       </c>
       <c r="E88">
-        <v>1979</v>
-      </c>
-      <c r="G88" t="s">
-        <v>199</v>
+        <v>2009</v>
       </c>
       <c r="I88" t="s">
         <v>78</v>
       </c>
       <c r="J88">
-        <v>1.06</v>
+        <v>1.5E-3</v>
       </c>
       <c r="K88">
-        <v>7150.0000000000009</v>
+        <v>1336.5</v>
       </c>
       <c r="L88">
-        <v>165</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="M88">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="N88">
         <v>1</v>
       </c>
-      <c r="O88">
-        <v>70</v>
-      </c>
-      <c r="P88">
-        <v>24</v>
-      </c>
-      <c r="Q88">
-        <v>24</v>
-      </c>
-      <c r="R88">
-        <v>5</v>
-      </c>
-      <c r="S88">
-        <v>5</v>
-      </c>
-      <c r="T88">
-        <v>48</v>
-      </c>
-      <c r="U88">
-        <v>100</v>
-      </c>
-      <c r="V88">
-        <v>50</v>
-      </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>200</v>
+        <v>341</v>
       </c>
       <c r="B89" t="s">
-        <v>201</v>
+        <v>76</v>
       </c>
       <c r="C89" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="D89" t="s">
         <v>52</v>
       </c>
       <c r="E89">
-        <v>1969</v>
-      </c>
-      <c r="G89" t="s">
-        <v>196</v>
+        <v>2010</v>
       </c>
       <c r="I89" t="s">
         <v>78</v>
       </c>
       <c r="J89">
-        <v>0.38</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="K89">
-        <v>7150.0000000000009</v>
+        <v>1336.5</v>
       </c>
       <c r="L89">
-        <v>165</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="M89">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="N89">
         <v>1</v>
       </c>
-      <c r="O89">
-        <v>70</v>
-      </c>
-      <c r="P89">
-        <v>24</v>
-      </c>
-      <c r="Q89">
-        <v>24</v>
-      </c>
-      <c r="R89">
-        <v>5</v>
-      </c>
-      <c r="S89">
-        <v>5</v>
-      </c>
-      <c r="T89">
-        <v>48</v>
-      </c>
-      <c r="U89">
-        <v>100</v>
-      </c>
-      <c r="V89">
-        <v>50</v>
-      </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>202</v>
+        <v>341</v>
       </c>
       <c r="B90" t="s">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="C90" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="D90" t="s">
         <v>52</v>
       </c>
       <c r="E90">
-        <v>1972</v>
-      </c>
-      <c r="G90" t="s">
-        <v>196</v>
+        <v>2011</v>
       </c>
       <c r="I90" t="s">
         <v>78</v>
       </c>
       <c r="J90">
-        <v>0.38</v>
+        <v>7.1000000000000013E-3</v>
       </c>
       <c r="K90">
-        <v>7150.0000000000009</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="L90">
-        <v>165</v>
+        <v>21.45</v>
       </c>
       <c r="M90">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="N90">
         <v>1</v>
-      </c>
-      <c r="O90">
-        <v>70</v>
-      </c>
-      <c r="P90">
-        <v>24</v>
-      </c>
-      <c r="Q90">
-        <v>24</v>
-      </c>
-      <c r="R90">
-        <v>5</v>
-      </c>
-      <c r="S90">
-        <v>5</v>
-      </c>
-      <c r="T90">
-        <v>48</v>
-      </c>
-      <c r="U90">
-        <v>100</v>
-      </c>
-      <c r="V90">
-        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.45">
@@ -20372,13 +19962,13 @@
         <v>52</v>
       </c>
       <c r="E91">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="I91" t="s">
         <v>78</v>
       </c>
       <c r="J91">
-        <v>1.5E-3</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="K91">
         <v>1336.5</v>
@@ -20407,16 +19997,16 @@
         <v>52</v>
       </c>
       <c r="E92">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="I92" t="s">
         <v>78</v>
       </c>
       <c r="J92">
-        <v>2.3999999999999998E-3</v>
+        <v>1.4799999999999999E-2</v>
       </c>
       <c r="K92">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="L92">
         <v>21.450000000000003</v>
@@ -20442,19 +20032,19 @@
         <v>52</v>
       </c>
       <c r="E93">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="I93" t="s">
         <v>78</v>
       </c>
       <c r="J93">
-        <v>7.1000000000000013E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="K93">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="L93">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="M93">
         <v>0</v>
@@ -20477,13 +20067,13 @@
         <v>52</v>
       </c>
       <c r="E94">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="I94" t="s">
         <v>78</v>
       </c>
       <c r="J94">
-        <v>2.5999999999999999E-2</v>
+        <v>2.3500000000000004E-2</v>
       </c>
       <c r="K94">
         <v>1336.5</v>
@@ -20512,16 +20102,16 @@
         <v>52</v>
       </c>
       <c r="E95">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="I95" t="s">
         <v>78</v>
       </c>
       <c r="J95">
-        <v>1.4799999999999999E-2</v>
+        <v>1.9300000000000005E-2</v>
       </c>
       <c r="K95">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="L95">
         <v>21.450000000000003</v>
@@ -20547,13 +20137,13 @@
         <v>52</v>
       </c>
       <c r="E96">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="I96" t="s">
         <v>78</v>
       </c>
       <c r="J96">
-        <v>1E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="K96">
         <v>1336.5</v>
@@ -20570,10 +20160,10 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B97" t="s">
-        <v>76</v>
+        <v>331</v>
       </c>
       <c r="C97" t="s">
         <v>204</v>
@@ -20582,19 +20172,19 @@
         <v>52</v>
       </c>
       <c r="E97">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="I97" t="s">
         <v>78</v>
       </c>
       <c r="J97">
-        <v>2.3500000000000004E-2</v>
+        <v>4.4311999999999996</v>
       </c>
       <c r="K97">
-        <v>1336.5</v>
+        <v>990</v>
       </c>
       <c r="L97">
-        <v>21.450000000000003</v>
+        <v>16.5</v>
       </c>
       <c r="M97">
         <v>0</v>
@@ -20605,34 +20195,34 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>341</v>
+        <v>205</v>
       </c>
       <c r="B98" t="s">
         <v>76</v>
       </c>
       <c r="C98" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D98" t="s">
         <v>52</v>
       </c>
       <c r="E98">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="I98" t="s">
         <v>78</v>
       </c>
       <c r="J98">
-        <v>1.9300000000000005E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="K98">
-        <v>1336.5</v>
+        <v>2376</v>
       </c>
       <c r="L98">
-        <v>21.450000000000003</v>
+        <v>57.2</v>
       </c>
       <c r="M98">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -20640,34 +20230,34 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>341</v>
+        <v>205</v>
       </c>
       <c r="B99" t="s">
         <v>76</v>
       </c>
       <c r="C99" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D99" t="s">
         <v>52</v>
       </c>
       <c r="E99">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="I99" t="s">
         <v>78</v>
       </c>
       <c r="J99">
-        <v>1.1999999999999999E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="K99">
-        <v>1336.5</v>
+        <v>2376</v>
       </c>
       <c r="L99">
-        <v>21.450000000000003</v>
+        <v>57.20000000000001</v>
       </c>
       <c r="M99">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -20675,34 +20265,34 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>342</v>
+        <v>205</v>
       </c>
       <c r="B100" t="s">
-        <v>331</v>
+        <v>76</v>
       </c>
       <c r="C100" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D100" t="s">
         <v>52</v>
       </c>
       <c r="E100">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="I100" t="s">
         <v>78</v>
       </c>
       <c r="J100">
-        <v>4.4311999999999996</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="K100">
-        <v>990</v>
+        <v>2376</v>
       </c>
       <c r="L100">
-        <v>16.5</v>
+        <v>57.2</v>
       </c>
       <c r="M100">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -20722,13 +20312,13 @@
         <v>52</v>
       </c>
       <c r="E101">
-        <v>2010</v>
+        <v>2022</v>
       </c>
       <c r="I101" t="s">
         <v>78</v>
       </c>
       <c r="J101">
-        <v>1.6E-2</v>
+        <v>4.6999999999999993E-2</v>
       </c>
       <c r="K101">
         <v>2376</v>
@@ -20757,129 +20347,24 @@
         <v>52</v>
       </c>
       <c r="E102">
-        <v>2015</v>
+        <v>2023</v>
       </c>
       <c r="I102" t="s">
         <v>78</v>
       </c>
       <c r="J102">
-        <v>1.2E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="K102">
         <v>2376</v>
       </c>
       <c r="L102">
-        <v>57.20000000000001</v>
+        <v>57.2</v>
       </c>
       <c r="M102">
         <v>2.52</v>
       </c>
       <c r="N102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A103" t="s">
-        <v>205</v>
-      </c>
-      <c r="B103" t="s">
-        <v>76</v>
-      </c>
-      <c r="C103" t="s">
-        <v>206</v>
-      </c>
-      <c r="D103" t="s">
-        <v>52</v>
-      </c>
-      <c r="E103">
-        <v>2016</v>
-      </c>
-      <c r="I103" t="s">
-        <v>78</v>
-      </c>
-      <c r="J103">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="K103">
-        <v>2376</v>
-      </c>
-      <c r="L103">
-        <v>57.2</v>
-      </c>
-      <c r="M103">
-        <v>2.52</v>
-      </c>
-      <c r="N103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A104" t="s">
-        <v>205</v>
-      </c>
-      <c r="B104" t="s">
-        <v>76</v>
-      </c>
-      <c r="C104" t="s">
-        <v>206</v>
-      </c>
-      <c r="D104" t="s">
-        <v>52</v>
-      </c>
-      <c r="E104">
-        <v>2022</v>
-      </c>
-      <c r="I104" t="s">
-        <v>78</v>
-      </c>
-      <c r="J104">
-        <v>4.6999999999999993E-2</v>
-      </c>
-      <c r="K104">
-        <v>2376</v>
-      </c>
-      <c r="L104">
-        <v>57.2</v>
-      </c>
-      <c r="M104">
-        <v>2.52</v>
-      </c>
-      <c r="N104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A105" t="s">
-        <v>205</v>
-      </c>
-      <c r="B105" t="s">
-        <v>76</v>
-      </c>
-      <c r="C105" t="s">
-        <v>206</v>
-      </c>
-      <c r="D105" t="s">
-        <v>52</v>
-      </c>
-      <c r="E105">
-        <v>2023</v>
-      </c>
-      <c r="I105" t="s">
-        <v>78</v>
-      </c>
-      <c r="J105">
-        <v>1.4E-2</v>
-      </c>
-      <c r="K105">
-        <v>2376</v>
-      </c>
-      <c r="L105">
-        <v>57.2</v>
-      </c>
-      <c r="M105">
-        <v>2.52</v>
-      </c>
-      <c r="N105">
         <v>1</v>
       </c>
     </row>
